--- a/data/2/20230608-a1r-yc-session2-m_transcript.xlsx
+++ b/data/2/20230608-a1r-yc-session2-m_transcript.xlsx
@@ -1,297 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:08 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D196F-753D-9B41-8331-65FF623FC73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230608-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:10"</t>
-  </si>
-  <si>
-    <t>A my name is Basile Messina and I live in Summit County Ohio.</t>
-  </si>
-  <si>
-    <t>"2:24"</t>
-  </si>
-  <si>
-    <t>"2:36"</t>
-  </si>
-  <si>
-    <t>Hello, my name is Patrick and I live in Bethlehem Pennsylvania.</t>
-  </si>
-  <si>
-    <t>"2:44"</t>
-  </si>
-  <si>
-    <t>Hello, my name is Angela crafts and I'm from Greenville Mississippi.</t>
-  </si>
-  <si>
-    <t>"12:31"</t>
-  </si>
-  <si>
-    <t>This is basil, Messina. I wonder if party leaders when they're determining 22 back in the elections. I'm not sure if they're backing them for the right reasons or for more of their political agendas.</t>
-  </si>
-  <si>
-    <t>"12:53"</t>
-  </si>
-  <si>
-    <t>I agree with you. I'm with you on that. I feel the same way about it.</t>
-  </si>
-  <si>
-    <t>"13:04"</t>
-  </si>
-  <si>
-    <t>Yes, I also agree with basil it's you're going to have other people voting for who they want. Not necessarily what the what the people want.</t>
-  </si>
-  <si>
-    <t>"15:04"</t>
-  </si>
-  <si>
-    <t>Again, it seems as if I want to keep everything the same, but I do, as far as changing it to rank Choice, voting, you're putting down the number, whether it be two, three or four for somebody that you don't necessarily care for her. Like, and then because of their system, they will get the votes if that's how it pans out. And I don't agree with that. As far as the national, the largest number of votes will have the largest cities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Left in your president, not necessarily your state sort out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanks again.</t>
-  </si>
-  <si>
-    <t>"16:24"</t>
-  </si>
-  <si>
-    <t>"16:31"</t>
-  </si>
-  <si>
-    <t>What you will benefit with changing the system. Honestly, so keeping it the same would be what I say.</t>
-  </si>
-  <si>
-    <t>"16:47"</t>
-  </si>
-  <si>
-    <t>"16:49"</t>
-  </si>
-  <si>
-    <t>I think that we should keep the current system, but use the right choice, so then each state gets to pick the win.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thank you.</t>
-  </si>
-  <si>
-    <t>"17:10"</t>
-  </si>
-  <si>
-    <t>Yes, I think so. Also again I understand about you know, voting for someone that is not going to is one of the one of the losers at the bottom but at the same time is still with the second with the second and third choices. At least it gives the majority of people if their person is not elected or is the lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanks. But it gives him a opportunity to go for their next best person that they think would be a better candidate this way. There's more choices for more of the voters.</t>
-  </si>
-  <si>
-    <t>"19:13"</t>
-  </si>
-  <si>
-    <t>That's another one that I would be against in other words.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Because they want to go with the popular vote of the nation as opposed to the state, they represent so therefore your votes don't count. They'll just go with the popular vote of the nation as opposed to your state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And this whole thing is supposed about having your vote count. I don't quite understand that.</t>
-  </si>
-  <si>
-    <t>"19:44"</t>
-  </si>
-  <si>
-    <t>I think some people who would disagree with me would be some of the people that are afraid of change. There's a lot of people that don't want anything to change, but if we don't change something, then nothing's going to change. Thank you.</t>
-  </si>
-  <si>
-    <t>"20:02"</t>
-  </si>
-  <si>
-    <t>I'm not sure if this came across, I agree with Patrick. I don't think that's the way to go.</t>
-  </si>
-  <si>
-    <t>"20:28"</t>
-  </si>
-  <si>
-    <t>I don't think that will be the way to go. I think I want my voice to be heard instead of the nation voice to be heard. If my vote count, then I think I should be amongst the ones who are heard.</t>
-  </si>
-  <si>
-    <t>"21:55"</t>
-  </si>
-  <si>
-    <t>I feel like the kiss is a run by the left, to try to control the Supreme Court to do its bidding for them.</t>
-  </si>
-  <si>
-    <t>"22:36"</t>
-  </si>
-  <si>
-    <t>Yeah, it seems somewhat I would change things around them or they want to control it whether it be left or right as far as an 18-year term limit. I'm not so sure that's the term as much as NIH grab term as well as the government itself. They want to put Supreme Court's just as on a term limit. So should they be on a term limit? We have lifers there. Who do not represent anybody.</t>
-  </si>
-  <si>
-    <t>"24:53"</t>
-  </si>
-  <si>
-    <t>So where I'm from Civics was taught in sixth and seventh grade, they stopped teaching it in order to bring in art classes. And hence, we have people who no longer understand or even know what the government is or about it taught you how the government worked it taught you how to handle money, it taught you, how to handle the banking system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And now they teach you nothing but they want to increase spending, which means higher taxes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And again, there they go. And lodging the government size.</t>
-  </si>
-  <si>
-    <t>"25:34"</t>
-  </si>
-  <si>
-    <t>Again, I agree with Patrick, there's much better ways. I think to do things.</t>
-  </si>
-  <si>
-    <t>"25:50"</t>
-  </si>
-  <si>
-    <t>I concur with that last speaker, that throwing money at it. Some of these problems is not the answer. More money does not does not correct problems necessarily and when they come up with with solutions that need funding, that's one thing. But just to increase spending without</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Out a solution based answer. I'm not in favor of</t>
-  </si>
-  <si>
-    <t>"31:54"</t>
-  </si>
-  <si>
-    <t>I'm good with that. Question is written in propose. We move forward.</t>
-  </si>
-  <si>
-    <t>"32:17"</t>
-  </si>
-  <si>
-    <t>That's a great question. Will there ever be an answer? I doubt it.</t>
-  </si>
-  <si>
-    <t>"32:50"</t>
-  </si>
-  <si>
-    <t>The Supreme Court seat should be addressed. When Congress is limited to one term and not Congress, isn't able to retire and die in the seat and come in as a working person and leave a multi-millionaire when that happens. Then we should we should talk about the Supreme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> art, but not until</t>
-  </si>
-  <si>
-    <t>"33:22"</t>
-  </si>
-  <si>
-    <t>Yeah, I actually just agree with mr. Johnson there, I have nothing else to add to what he said was well put</t>
-  </si>
-  <si>
-    <t>"33:35"</t>
-  </si>
-  <si>
-    <t>So do I battle Messina? Yes.</t>
-  </si>
-  <si>
-    <t>"33:44"</t>
-  </si>
-  <si>
-    <t>I also agree. I concur with everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maybe the first time since we started this. We all agree.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -367,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -473,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1555,638 +1293,735 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:10"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>A my name is Basile Messina and I live in Summit County Ohio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48784</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"2:24"</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"2:36"</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"2:36"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Hello, my name is Patrick and I live in Bethlehem Pennsylvania.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"2:44"</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"2:44"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Hello, my name is Angela crafts and I'm from Greenville Mississippi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"12:31"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>This is basil, Messina. I wonder if party leaders when they're determining 22 back in the elections. I'm not sure if they're backing them for the right reasons or for more of their political agendas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"12:53"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"12:53"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I agree with you. I'm with you on that. I feel the same way about it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"13:04"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Yes, I also agree with basil it's you're going to have other people voting for who they want. Not necessarily what the what the people want.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"13:04"</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Again, it seems as if I want to keep everything the same, but I do, as far as changing it to rank Choice, voting, you're putting down the number, whether it be two, three or four for somebody that you don't necessarily care for her. Like, and then because of their system, they will get the votes if that's how it pans out. And I don't agree with that. As far as the national, the largest number of votes will have the largest cities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Left in your president, not necessarily your state sort out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thanks again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48784</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"16:24"</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"16:31"</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"16:31"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>What you will benefit with changing the system. Honestly, so keeping it the same would be what I say.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"16:47"</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48787</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"16:49"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>I think that we should keep the current system, but use the right choice, so then each state gets to pick the win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48787</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"16:49"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"17:10"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Yes, I think so. Also again I understand about you know, voting for someone that is not going to is one of the one of the losers at the bottom but at the same time is still with the second with the second and third choices. At least it gives the majority of people if their person is not elected or is the lower</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"17:10"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thanks. But it gives him a opportunity to go for their next best person that they think would be a better candidate this way. There's more choices for more of the voters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"19:13"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>That's another one that I would be against in other words.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"19:13"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Because they want to go with the popular vote of the nation as opposed to the state, they represent so therefore your votes don't count. They'll just go with the popular vote of the nation as opposed to your state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"19:13"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And this whole thing is supposed about having your vote count. I don't quite understand that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48787</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>I think some people who would disagree with me would be some of the people that are afraid of change. There's a lot of people that don't want anything to change, but if we don't change something, then nothing's going to change. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"20:02"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>I'm not sure if this came across, I agree with Patrick. I don't think that's the way to go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48598</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"20:28"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>I don't think that will be the way to go. I think I want my voice to be heard instead of the nation voice to be heard. If my vote count, then I think I should be amongst the ones who are heard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48782</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"21:55"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>I feel like the kiss is a run by the left, to try to control the Supreme Court to do its bidding for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"22:36"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, it seems somewhat I would change things around them or they want to control it whether it be left or right as far as an 18-year term limit. I'm not so sure that's the term as much as NIH grab term as well as the government itself. They want to put Supreme Court's just as on a term limit. So should they be on a term limit? We have lifers there. Who do not represent anybody.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"22:36"</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"24:53"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>So where I'm from Civics was taught in sixth and seventh grade, they stopped teaching it in order to bring in art classes. And hence, we have people who no longer understand or even know what the government is or about it taught you how the government worked it taught you how to handle money, it taught you, how to handle the banking system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"24:53"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And now they teach you nothing but they want to increase spending, which means higher taxes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"24:53"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And again, there they go. And lodging the government size.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"25:34"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>Again, I agree with Patrick, there's much better ways. I think to do things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48782</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"25:50"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>I concur with that last speaker, that throwing money at it. Some of these problems is not the answer. More money does not does not correct problems necessarily and when they come up with with solutions that need funding, that's one thing. But just to increase spending without</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>48782</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"25:50"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Out a solution based answer. I'm not in favor of</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48782</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"31:54"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>I'm good with that. Question is written in propose. We move forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"32:17"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>That's a great question. Will there ever be an answer? I doubt it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48782</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"32:50"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>The Supreme Court seat should be addressed. When Congress is limited to one term and not Congress, isn't able to retire and die in the seat and come in as a working person and leave a multi-millionaire when that happens. Then we should we should talk about the Supreme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48782</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"32:50"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> art, but not until</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"33:22"</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n"/>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"33:22"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I actually just agree with mr. Johnson there, I have nothing else to add to what he said was well put</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>10194</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"33:22"</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="n"/>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48777</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"33:35"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>So do I battle Messina? Yes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48787</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"33:44"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>I also agree. I concur with everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48787</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>64</v>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"33:44"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maybe the first time since we started this. We all agree.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0206B-AE71-534D-A7F7-317C86CE704C}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230608-a1r-yc-session2-m_transcript.xlsx
+++ b/data/2/20230608-a1r-yc-session2-m_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
